--- a/HP/zj/202109.xlsx
+++ b/HP/zj/202109.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>2021年09月份旅差费</t>
   </si>
@@ -51,6 +51,24 @@
   </si>
   <si>
     <t>叫货拉拉送完货后，搭公交车回公司。</t>
+  </si>
+  <si>
+    <t>UA20210901170642869735</t>
+  </si>
+  <si>
+    <t>2021.09.03</t>
+  </si>
+  <si>
+    <t>公司-电白县博贺镇东风街中国人寿-公司</t>
+  </si>
+  <si>
+    <t>李小姐</t>
+  </si>
+  <si>
+    <t>自驾小汽车</t>
+  </si>
+  <si>
+    <t>海尔升腾一体机，网络故障。</t>
   </si>
   <si>
     <t>、</t>
@@ -698,7 +716,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1166,6 +1184,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1545,8 +1578,8 @@
     <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -1567,8 +1600,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="H6" activeCellId="0" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1585,7 +1618,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1620,36 +1653,52 @@
         <v>9</v>
       </c>
       <c r="C6" s="72">
-        <v>44440</v>
-      </c>
-      <c r="D6" s="121" t="s">
+        <v>44440.0</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="11">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="28.499565" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="69"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="14"/>
+      <c r="B7" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="13">
+        <v>54</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="11">
+        <v>108</v>
+      </c>
+      <c r="I7" s="122" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="36.74944" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="14"/>
@@ -1834,7 +1883,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -1846,11 +1895,11 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:H26)</f>
-        <v>4</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202109.xlsx
+++ b/HP/zj/202109.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>2021年09月份旅差费</t>
   </si>
@@ -69,6 +69,21 @@
   </si>
   <si>
     <t>海尔升腾一体机，网络故障。</t>
+  </si>
+  <si>
+    <t>1、无单2、3、CIP_MMDC800637</t>
+  </si>
+  <si>
+    <t>2021.09.06</t>
+  </si>
+  <si>
+    <t>公司-1、高州一中附属实验中学-2、高州市公安局-3、高州市潘州街道解放路40号-公司</t>
+  </si>
+  <si>
+    <t>1、邓老师 2、黎生 3、阮子恒</t>
+  </si>
+  <si>
+    <t>1、送HP主机。2、HP台式机主板非损不换。3、安装打印机。</t>
   </si>
   <si>
     <t>、</t>
@@ -716,7 +731,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1202,28 +1217,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1576,9 +1576,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -1600,8 +1597,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1609,7 +1606,7 @@
     <col min="1" max="1" width="9.0" style="1"/>
     <col min="2" max="2" width="29.0" customWidth="1" style="1"/>
     <col min="3" max="3" width="15.75" customWidth="1" style="1"/>
-    <col min="4" max="4" width="53.375" customWidth="1" style="1"/>
+    <col min="4" max="4" width="78.75" customWidth="1" style="1"/>
     <col min="5" max="5" width="20.375" customWidth="1" style="1"/>
     <col min="6" max="6" width="13.875" customWidth="1" style="7"/>
     <col min="7" max="7" width="13.125" customWidth="1" style="1"/>
@@ -1662,7 +1659,7 @@
         <v>9</v>
       </c>
       <c r="F6" s="13">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>11</v>
@@ -1681,34 +1678,46 @@
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="121" t="s">
+      <c r="D7" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="13">
-        <v>54</v>
+        <v>54.0</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="11">
-        <v>108</v>
-      </c>
-      <c r="I7" s="122" t="s">
+        <v>108.0</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="36.74944" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="14"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="14"/>
+      <c r="B8" s="121" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="121" t="s">
+        <v>22</v>
+      </c>
       <c r="F8" s="13"/>
-      <c r="G8" s="11"/>
+      <c r="G8" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="H8" s="11"/>
-      <c r="I8" s="14"/>
+      <c r="I8" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="36.74944" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="14"/>
@@ -1883,7 +1892,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -1895,7 +1904,7 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:H26)</f>

--- a/HP/zj/202109.xlsx
+++ b/HP/zj/202109.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>2021年09月份旅差费</t>
   </si>
@@ -84,6 +84,24 @@
   </si>
   <si>
     <t>1、送HP主机。2、HP台式机主板非损不换。3、安装打印机。</t>
+  </si>
+  <si>
+    <t>WO-015168977</t>
+  </si>
+  <si>
+    <t>2021.09.10</t>
+  </si>
+  <si>
+    <t>公司-羊角镇竹营小学-公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">罗先生 </t>
+  </si>
+  <si>
+    <t>13*2</t>
+  </si>
+  <si>
+    <t>HP台式机换电源</t>
   </si>
   <si>
     <t>、</t>
@@ -109,7 +127,7 @@
     <numFmt numFmtId="185" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="186" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="38">
+  <fonts count="37" x14ac:knownFonts="37">
     <font>
       <sz val="12.0"/>
       <name val="永中宋体"/>
@@ -345,11 +363,6 @@
       <name val="永中宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12.0"/>
-      <name val="永中宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="64">
     <fill>
@@ -731,7 +744,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1202,28 +1215,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1574,9 +1572,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -1597,8 +1592,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1698,7 +1693,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="36.74944" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="72" t="s">
@@ -1707,7 +1702,7 @@
       <c r="D8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="121" t="s">
+      <c r="E8" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="13"/>
@@ -1720,14 +1715,30 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="36.74944" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="14"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="14"/>
+      <c r="B9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="11">
+        <v>26</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="11"/>
@@ -1892,7 +1903,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -1904,11 +1915,11 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:H26)</f>
-        <v>112</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202109.xlsx
+++ b/HP/zj/202109.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>2021年09月份旅差费</t>
   </si>
@@ -83,6 +83,9 @@
     <t>1、邓老师 2、黎生 3、阮子恒</t>
   </si>
   <si>
+    <t>40*2</t>
+  </si>
+  <si>
     <t>1、送HP主机。2、HP台式机主板非损不换。3、安装打印机。</t>
   </si>
   <si>
@@ -102,6 +105,21 @@
   </si>
   <si>
     <t>HP台式机换电源</t>
+  </si>
+  <si>
+    <t>WO-015183219</t>
+  </si>
+  <si>
+    <t>2021.09.13</t>
+  </si>
+  <si>
+    <t>公司-羊角实验小学-公司</t>
+  </si>
+  <si>
+    <t>张雪</t>
+  </si>
+  <si>
+    <t>11*2</t>
   </si>
   <si>
     <t>、</t>
@@ -1592,8 +1610,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J9" activeCellId="0" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1705,50 +1723,70 @@
       <c r="E8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="13"/>
+      <c r="F8" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="G8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="11">
+        <v>80</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="36.74944" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="72" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="11">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="14"/>
+      <c r="B10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="11">
+        <v>22</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="37.499428" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="14"/>
@@ -1903,7 +1941,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -1915,11 +1953,11 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:H26)</f>
-        <v>138</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202109.xlsx
+++ b/HP/zj/202109.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>2021年09月份旅差费</t>
   </si>
@@ -120,6 +120,39 @@
   </si>
   <si>
     <t>11*2</t>
+  </si>
+  <si>
+    <t>WO-015282626</t>
+  </si>
+  <si>
+    <t>2021.09.19</t>
+  </si>
+  <si>
+    <t>公司-金塘镇正南街18号-公司</t>
+  </si>
+  <si>
+    <t>赵夏儒</t>
+  </si>
+  <si>
+    <t>26*2</t>
+  </si>
+  <si>
+    <t>WO-015170700</t>
+  </si>
+  <si>
+    <t>2021.09.25</t>
+  </si>
+  <si>
+    <t>公司-水东职业技术学校-公司</t>
+  </si>
+  <si>
+    <t>苏钧泳</t>
+  </si>
+  <si>
+    <t>38*2</t>
+  </si>
+  <si>
+    <t>HP台式机没显示校方LOGO ，豪信的人去。因操作导航失误，到了健康职业技术学院，多跑了17公里。</t>
   </si>
   <si>
     <t>、</t>
@@ -145,7 +178,7 @@
     <numFmt numFmtId="185" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="186" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="37">
+  <fonts count="38" x14ac:knownFonts="38">
     <font>
       <sz val="12.0"/>
       <name val="永中宋体"/>
@@ -381,6 +414,11 @@
       <name val="永中宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="64">
     <fill>
@@ -762,7 +800,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1233,13 +1271,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1589,6 +1672,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -1610,8 +1705,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="H12" activeCellId="0" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1730,7 +1825,7 @@
         <v>17</v>
       </c>
       <c r="H8" s="11">
-        <v>80</v>
+        <v>80.0</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>24</v>
@@ -1782,31 +1877,63 @@
         <v>17</v>
       </c>
       <c r="H10" s="11">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="37.499428" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="14"/>
+      <c r="B11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="122" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="122" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="11">
+        <v>52</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="14"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="14"/>
+      <c r="B12" s="121" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="122" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="11">
+        <v>76</v>
+      </c>
+      <c r="I12" s="121" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
@@ -1941,7 +2068,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -1953,11 +2080,11 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:H26)</f>
-        <v>240</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202109.xlsx
+++ b/HP/zj/202109.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>2021年09月份旅差费</t>
   </si>
@@ -153,6 +153,15 @@
   </si>
   <si>
     <t>HP台式机没显示校方LOGO ，豪信的人去。因操作导航失误，到了健康职业技术学院，多跑了17公里。</t>
+  </si>
+  <si>
+    <t>2021.09.27</t>
+  </si>
+  <si>
+    <t>27*2</t>
+  </si>
+  <si>
+    <t>第二次去，解决了LOGO问题，但到晚上北京的来电说不接受这个方案。</t>
   </si>
   <si>
     <t>、</t>
@@ -800,7 +809,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1301,28 +1310,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1677,13 +1671,7 @@
     <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="182" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -1705,8 +1693,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1890,10 +1878,10 @@
       <c r="C11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="122" t="s">
+      <c r="D11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="122" t="s">
+      <c r="E11" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="13" t="s">
@@ -1903,23 +1891,23 @@
         <v>17</v>
       </c>
       <c r="H11" s="11">
-        <v>52</v>
+        <v>52.0</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="121" t="s">
+      <c r="B12" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="122" t="s">
+      <c r="D12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="124" t="s">
+      <c r="E12" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="13" t="s">
@@ -1929,22 +1917,37 @@
         <v>17</v>
       </c>
       <c r="H12" s="11">
-        <v>76</v>
-      </c>
-      <c r="I12" s="121" t="s">
+        <v>76.0</v>
+      </c>
+      <c r="I12" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="14"/>
+      <c r="B13" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="122" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="11">
+        <v>54</v>
+      </c>
+      <c r="I13" s="121" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="52.4992" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="11"/>
@@ -2068,7 +2071,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -2080,11 +2083,11 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:H26)</f>
-        <v>368</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202109.xlsx
+++ b/HP/zj/202109.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>2021年09月份旅差费</t>
   </si>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t>第二次去，解决了LOGO问题，但到晚上北京的来电说不接受这个方案。</t>
+  </si>
+  <si>
+    <t>无单</t>
+  </si>
+  <si>
+    <t>2021.09.30</t>
+  </si>
+  <si>
+    <t>陈坛仔</t>
+  </si>
+  <si>
+    <t>第三次去，处理另一个教室60台机未安装合同上6个软件的问题。做系统，装合同上的软件，同传</t>
   </si>
   <si>
     <t>、</t>
@@ -1668,11 +1680,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="182" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -1693,8 +1705,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H16" activeCellId="0" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1927,7 +1939,7 @@
       <c r="B13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="15" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -1943,21 +1955,37 @@
         <v>17</v>
       </c>
       <c r="H13" s="11">
-        <v>54</v>
-      </c>
-      <c r="I13" s="121" t="s">
+        <v>54.0</v>
+      </c>
+      <c r="I13" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="52.4992" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="11"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="14"/>
+      <c r="B14" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="121" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="11">
+        <v>54.0</v>
+      </c>
+      <c r="I14" s="122" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="44.999313" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="14"/>
@@ -2071,7 +2099,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -2083,11 +2111,11 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:H26)</f>
-        <v>422</v>
+        <v>476</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202109.xlsx
+++ b/HP/zj/202109.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
   <si>
     <t>2021年09月份旅差费</t>
   </si>
@@ -174,6 +174,21 @@
   </si>
   <si>
     <t>第三次去，处理另一个教室60台机未安装合同上6个软件的问题。做系统，装合同上的软件，同传</t>
+  </si>
+  <si>
+    <t>2021.10.08</t>
+  </si>
+  <si>
+    <t>陈老师</t>
+  </si>
+  <si>
+    <t>第四次去，处理另一个教室60台机未安装合同上6个软件的问题。已完成。</t>
+  </si>
+  <si>
+    <t>2021.10.11</t>
+  </si>
+  <si>
+    <t>第五次去，处理另一个教室60台机未安装合同上6个软件的问题。已完成。</t>
   </si>
   <si>
     <t>、</t>
@@ -821,7 +836,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1322,13 +1337,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1680,11 +1725,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="182" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="39" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -1705,8 +1759,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="G14" activeCellId="0" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1919,7 +1973,7 @@
       <c r="D12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="11" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="13" t="s">
@@ -1945,7 +1999,7 @@
       <c r="D13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="11" t="s">
         <v>44</v>
       </c>
       <c r="F13" s="13" t="s">
@@ -1965,13 +2019,13 @@
       <c r="B14" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="121" t="s">
+      <c r="C14" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="11" t="s">
         <v>52</v>
       </c>
       <c r="F14" s="13" t="s">
@@ -1983,29 +2037,61 @@
       <c r="H14" s="11">
         <v>54.0</v>
       </c>
-      <c r="I14" s="122" t="s">
+      <c r="I14" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="44.999313" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="14"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="11"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="14"/>
+    <row r="15" spans="1:9" ht="52.4992" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="122" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="125" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="11">
+        <v>54.0</v>
+      </c>
+      <c r="I15" s="123" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="52.4992" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="122" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="125" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="11">
+        <v>54.0</v>
+      </c>
+      <c r="I16" s="123" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" ht="54.749165" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="69"/>
@@ -2099,7 +2185,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -2111,11 +2197,11 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:H26)</f>
-        <v>476</v>
+        <v>584</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202109.xlsx
+++ b/HP/zj/202109.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
   <si>
     <t>2021年09月份旅差费</t>
   </si>
@@ -189,6 +189,24 @@
   </si>
   <si>
     <t>第五次去，处理另一个教室60台机未安装合同上6个软件的问题。已完成。</t>
+  </si>
+  <si>
+    <t>WO-015548140</t>
+  </si>
+  <si>
+    <t>2021.10.14</t>
+  </si>
+  <si>
+    <t>公司-油校西城区-公司</t>
+  </si>
+  <si>
+    <t>林诗晓</t>
+  </si>
+  <si>
+    <t>16*2</t>
+  </si>
+  <si>
+    <t>HP笔记本换主板</t>
   </si>
   <si>
     <t>、</t>
@@ -836,7 +854,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1322,58 +1340,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1725,20 +1698,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="184" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="39" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -1759,8 +1720,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2045,13 +2006,13 @@
       <c r="B15" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="122" t="s">
+      <c r="C15" s="15" t="s">
         <v>54</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="125" t="s">
+      <c r="E15" s="11" t="s">
         <v>55</v>
       </c>
       <c r="F15" s="13" t="s">
@@ -2063,7 +2024,7 @@
       <c r="H15" s="11">
         <v>54.0</v>
       </c>
-      <c r="I15" s="123" t="s">
+      <c r="I15" s="14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2071,13 +2032,13 @@
       <c r="B16" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="122" t="s">
+      <c r="C16" s="15" t="s">
         <v>57</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="125" t="s">
+      <c r="E16" s="11" t="s">
         <v>55</v>
       </c>
       <c r="F16" s="13" t="s">
@@ -2089,19 +2050,35 @@
       <c r="H16" s="11">
         <v>54.0</v>
       </c>
-      <c r="I16" s="123" t="s">
+      <c r="I16" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" ht="54.749165" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="69"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="14"/>
+      <c r="B17" s="121" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="11">
+        <v>32</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="32.249508" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="14"/>
@@ -2185,7 +2162,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -2197,11 +2174,11 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:H26)</f>
-        <v>584</v>
+        <v>616</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202109.xlsx
+++ b/HP/zj/202109.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>2021年09月份旅差费</t>
   </si>
@@ -174,39 +174,6 @@
   </si>
   <si>
     <t>第三次去，处理另一个教室60台机未安装合同上6个软件的问题。做系统，装合同上的软件，同传</t>
-  </si>
-  <si>
-    <t>2021.10.08</t>
-  </si>
-  <si>
-    <t>陈老师</t>
-  </si>
-  <si>
-    <t>第四次去，处理另一个教室60台机未安装合同上6个软件的问题。已完成。</t>
-  </si>
-  <si>
-    <t>2021.10.11</t>
-  </si>
-  <si>
-    <t>第五次去，处理另一个教室60台机未安装合同上6个软件的问题。已完成。</t>
-  </si>
-  <si>
-    <t>WO-015548140</t>
-  </si>
-  <si>
-    <t>2021.10.14</t>
-  </si>
-  <si>
-    <t>公司-油校西城区-公司</t>
-  </si>
-  <si>
-    <t>林诗晓</t>
-  </si>
-  <si>
-    <t>16*2</t>
-  </si>
-  <si>
-    <t>HP笔记本换主板</t>
   </si>
   <si>
     <t>、</t>
@@ -232,7 +199,7 @@
     <numFmt numFmtId="185" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="186" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="38">
+  <fonts count="37" x14ac:knownFonts="37">
     <font>
       <sz val="12.0"/>
       <name val="永中宋体"/>
@@ -468,11 +435,6 @@
       <name val="永中宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12.0"/>
-      <name val="永中宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="64">
     <fill>
@@ -854,7 +816,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1325,28 +1287,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1697,9 +1644,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -1720,8 +1664,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I22" activeCellId="0" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2003,82 +1947,34 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="52.4992" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="11">
-        <v>54.0</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>56</v>
-      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" ht="52.4992" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="11">
-        <v>54.0</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>58</v>
-      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" ht="54.749165" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="121" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="11">
-        <v>32</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>64</v>
-      </c>
+      <c r="B17" s="69"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" ht="32.249508" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="14"/>
@@ -2162,7 +2058,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -2174,11 +2070,11 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:H26)</f>
-        <v>616</v>
+        <v>476</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
